--- a/data/TestLogin.xlsx
+++ b/data/TestLogin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\pytest-api-auto\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LiHanqing\Documents\GitHub\pytest-api-auto\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44FA89A-C447-4AD9-BD90-24CA0294F6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9332CA8E-B7C7-46AB-97AD-7E2BE3982D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="900" windowWidth="21960" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6024" yWindow="1704" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>用例名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -480,16 +480,16 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -527,7 +527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>6</v>
       </c>
@@ -594,7 +594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>7</v>
       </c>
@@ -623,7 +623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8</v>
       </c>
@@ -640,7 +640,7 @@
         <v>6666125123</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>9</v>
       </c>
@@ -657,7 +657,7 @@
         <v>666666</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10</v>
       </c>
@@ -674,7 +674,7 @@
         <v>6124122312</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -695,10 +695,7 @@
         <v>10001114</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
     </row>
   </sheetData>
